--- a/panda_tutor/test.xlsx
+++ b/panda_tutor/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mnte/PycharmProjects/hello-world/panda/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mnte/PycharmProjects/hello-world/panda_tutor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35154720-2964-394F-B4BF-57A7F3D5EC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3EFEEB-E21B-F24A-8451-F70A62831418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15760" yWindow="15120" windowWidth="22180" windowHeight="15580" xr2:uid="{7400BFFA-9A8B-E94B-9EF4-94D5C087999A}"/>
+    <workbookView xWindow="24940" yWindow="14440" windowWidth="22180" windowHeight="15580" activeTab="1" xr2:uid="{7400BFFA-9A8B-E94B-9EF4-94D5C087999A}"/>
   </bookViews>
   <sheets>
     <sheet name="Lap1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>A</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>hatodik</t>
+  </si>
+  <si>
+    <t>sorsz</t>
+  </si>
+  <si>
+    <t>num</t>
   </si>
 </sst>
 </file>
@@ -129,9 +135,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022 téma">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -169,7 +175,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -275,7 +281,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -417,7 +423,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -427,13 +433,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA24027C-2E6A-1E42-A234-9D80FAEDDDAE}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -537,13 +544,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAE19055-BFC2-D648-954B-CB943BBDAA7C}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
